--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1310.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1310.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.018627205578343</v>
+        <v>1.08461582660675</v>
       </c>
       <c r="B1">
-        <v>2.532413400376255</v>
+        <v>2.143845558166504</v>
       </c>
       <c r="C1">
-        <v>5.419782324930771</v>
+        <v>9.339086532592773</v>
       </c>
       <c r="D1">
-        <v>2.199347820510836</v>
+        <v>1.009033441543579</v>
       </c>
       <c r="E1">
-        <v>1.249391853650186</v>
+        <v>1.032935738563538</v>
       </c>
     </row>
   </sheetData>
